--- a/biology/Histoire de la zoologie et de la botanique/David_M._Raup/David_M._Raup.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/David_M._Raup/David_M._Raup.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">David M. Raup (24 avril 1933 - 9 juillet 2015) est un paléontologue américain de l'Université de Chicago. Raup étudia les fossiles et la diversité de la vie sur Terre. Il a contribué à la connaissance des extinctions massives avec son collègue Jack Sepkoski. Ils ont suggéré que l'extinction des dinosaures, il y a 66 Ma (millions d'années), pouvait faire partie d'un cycle d'extinctions de masse survenant tous les 26 millions d'années.
 </t>
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse
-Né le 24 avril 1933, et il grandit à Boston. Son intérêt pour l'étude des fossiles a commencé tardivement. Il était plutôt concentré sur des activités de loisirs, telles que le ski et le camping. Son premier mentor a été John Clark, un paléontologue des vertébrés et sédimentologue à l'Université de Chicago.
-Carrière
-Raup a commencé sa carrière universitaire à l'université de Colby dans le Maine, avant d'aller deux ans plus tard, à l'Université de Chicago, où il a obtenu son Baccalauréat ès Sciences. À partir de là, il a fréquenté l'université d'Harvard pour ses études supérieures, où il s'est spécialisé dans la géologie tout en mettant l'accent sur la paléontologie et la biologie ; il y a obtenu sa maîtrise et son Doctorat. 
-Raup a également enseigné à Caltech, à l'université Johns Hopkins et à l'Université de Rochester[1]. Il a été conservateur et Doyen de la faculté des Sciences au Field Museum of Natural History de Chicago, ainsi que professeur invité en Allemagne, à Tübingen, et aussi à la faculté de l'université des Îles Vierges. En 1994, il a pris sa retraite sur l'île Washington au nord du Lac Michigan. Avant sa mort, il a aidé l'Institut de Santa Fe à développer des méthodes et des approches pour traiter l'évolution de l'exploration de morphospace. Il est décédé le 9 juillet 2015 d'une pneumonie[2].
-L'astéroïde 9165 Raup a été nommé en son honneur[3].
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né le 24 avril 1933, et il grandit à Boston. Son intérêt pour l'étude des fossiles a commencé tardivement. Il était plutôt concentré sur des activités de loisirs, telles que le ski et le camping. Son premier mentor a été John Clark, un paléontologue des vertébrés et sédimentologue à l'Université de Chicago.
 </t>
         </is>
       </c>
@@ -544,17 +557,92 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raup a commencé sa carrière universitaire à l'université de Colby dans le Maine, avant d'aller deux ans plus tard, à l'Université de Chicago, où il a obtenu son Baccalauréat ès Sciences. À partir de là, il a fréquenté l'université d'Harvard pour ses études supérieures, où il s'est spécialisé dans la géologie tout en mettant l'accent sur la paléontologie et la biologie ; il y a obtenu sa maîtrise et son Doctorat. 
+Raup a également enseigné à Caltech, à l'université Johns Hopkins et à l'Université de Rochester. Il a été conservateur et Doyen de la faculté des Sciences au Field Museum of Natural History de Chicago, ainsi que professeur invité en Allemagne, à Tübingen, et aussi à la faculté de l'université des Îles Vierges. En 1994, il a pris sa retraite sur l'île Washington au nord du Lac Michigan. Avant sa mort, il a aidé l'Institut de Santa Fe à développer des méthodes et des approches pour traiter l'évolution de l'exploration de morphospace. Il est décédé le 9 juillet 2015 d'une pneumonie.
+L'astéroïde 9165 Raup a été nommé en son honneur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>David_M._Raup</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/David_M._Raup</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) David Raup et Steven M. Stanley, Principles of Paleontology : Second Edition, New York, 2, 1978, 481 p. (ISBN 0-7167-0022-0)
 David Raup, Report of the Dahlem Workshop on Patterns and Processes in the History of Life, 16–21 June 1985, Berlin, Springer Verlag, 1986 (ISBN 0-387-15965-7), « Patterns and Processes in the History of Life »
 David Raup, Extinction : Bad Genes or Bad Luck?, 1992, 210 p. (ISBN 0-393-30927-4)
-David 1999 Raup, The Nemesis Affair : A Story of the Death of Dinosaurs and the Ways of Science, 1999, 228 p. (ISBN 978-0-393-31918-7 et 0-393-31918-0)
-Périodiques
-David M. Raup, « Computer as aid in describing form in gastropod shells », Science, vol. 138, no 3537,‎ 1962, p. 150–152 (PMID 17818401, DOI 10.1126/science.138.3537.150, Bibcode 1962Sci...138..150R)
+David 1999 Raup, The Nemesis Affair : A Story of the Death of Dinosaurs and the Ways of Science, 1999, 228 p. (ISBN 978-0-393-31918-7 et 0-393-31918-0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>David_M._Raup</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/David_M._Raup</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Périodiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>David M. Raup, « Computer as aid in describing form in gastropod shells », Science, vol. 138, no 3537,‎ 1962, p. 150–152 (PMID 17818401, DOI 10.1126/science.138.3537.150, Bibcode 1962Sci...138..150R)
 David M. Raup, « Geometric analysis of shell coiling: general problems », Journal of Paleontology, vol. 40,‎ 1966, p. 1178–1190
 David M. Raup, « Size of the Permo-Triassic Bottleneck and Its Evolutionary Implications », Science, vol. 206, no 4415,‎ 12 octobre 1979, p. 217–218 (PMID 17801788, DOI 10.1126/science.206.4415.217, Bibcode 1979Sci...206..217R)
 David M. Raup et J. John, Jr. Sepkoski, « Mass extinctions in the marine fossil record », Science, vol. 215, no 4539,‎ 19 mars 1982, p. 1501–3 (PMID 17788674, DOI 10.1126/science.215.4539.1501, Bibcode 1982Sci...215.1501R)
